--- a/AutoDriving/Doc/Arduino Pin cofiguration.xlsx
+++ b/AutoDriving/Doc/Arduino Pin cofiguration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\AutoDriving\AutoDriving\AutoDriving\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongjin\Documents\GitHub\AutoDriving\AutoDriving\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C162FD7C-27D2-4E28-A479-3415C479FA8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D7D7B-6A99-4004-9913-36DCB4FF49F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0FB400CC-D4FF-459A-9816-476CDFC92D70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FB400CC-D4FF-459A-9816-476CDFC92D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino Mega Pin" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="227">
   <si>
     <t>Output Pin Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -940,6 +940,18 @@
   </si>
   <si>
     <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r or w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$w/0/180% =&gt; Arduino에 Servo 각도 180도로 조정하라 명령 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$r/3/0% =&gt; Arduino에 Battery Voltage 읽어와서 응답하라 명령 전달</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1401,39 +1413,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,7 +1437,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2765,34 +2777,34 @@
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" s="32"/>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27" t="s">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27" t="s">
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42"/>
     </row>
     <row r="3" spans="2:21" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="33"/>
@@ -2849,53 +2861,53 @@
       <c r="B4" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24">
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37">
         <v>0.09</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37">
         <v>3.124375E-4</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="25"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="39"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29" t="s">
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="30"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="38"/>
       <c r="T5" s="12" t="s">
         <v>205</v>
       </c>
@@ -2907,28 +2919,28 @@
       <c r="B6" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35">
         <v>64</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35">
         <v>1</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29">
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35">
         <v>1</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="30"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="38"/>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
@@ -3001,6 +3013,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
@@ -3010,22 +3038,6 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3034,134 +3046,141 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CB8EE3-84CF-4E3F-864F-A241463DF71A}">
-  <dimension ref="B1:L11"/>
+  <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>209</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>219</v>
-      </c>
       <c r="E2" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J5" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K5" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="43" t="s">
+        <v>225</v>
+      </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="K6" s="40">
+      <c r="J6" s="29">
         <v>0</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="K6" s="30" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K7" s="40">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="J7" s="29">
         <v>1</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="K7" s="30" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K8" s="40">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="29">
         <v>2</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="K8" s="30" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K9" s="40">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="29">
         <v>3</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="K9" s="30" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K10" s="40">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="29">
         <v>4</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="K10" s="30" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K11" s="42">
+    <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="31">
         <v>5</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="K11" s="28" t="s">
         <v>221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:I6"/>
+  <mergeCells count="2">
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AutoDriving/Doc/Arduino Pin cofiguration.xlsx
+++ b/AutoDriving/Doc/Arduino Pin cofiguration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongjin\Documents\GitHub\AutoDriving\AutoDriving\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D7D7B-6A99-4004-9913-36DCB4FF49F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AEA751-ACC3-4384-AD4A-0DEC61C2D363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0FB400CC-D4FF-459A-9816-476CDFC92D70}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{0FB400CC-D4FF-459A-9816-476CDFC92D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino Mega Pin" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="237">
   <si>
     <t>Output Pin Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -911,10 +911,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Motor Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Transmission</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -952,6 +948,50 @@
   </si>
   <si>
     <t>$r/3/0% =&gt; Arduino에 Battery Voltage 읽어와서 응답하라 명령 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car State는 3 bit로 구성되어있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5(=0b101)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3046,10 +3086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CB8EE3-84CF-4E3F-864F-A241463DF71A}">
-  <dimension ref="B1:K11"/>
+  <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3065,7 +3105,7 @@
         <v>209</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>211</v>
@@ -3080,7 +3120,7 @@
         <v>214</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3088,7 +3128,7 @@
         <v>210</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>212</v>
@@ -3099,7 +3139,7 @@
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -3113,7 +3153,7 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -3130,7 +3170,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -3142,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
@@ -3150,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
@@ -3158,23 +3198,66 @@
         <v>3</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>227</v>
+      </c>
       <c r="J10" s="29">
         <v>4</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" t="s">
+        <v>230</v>
+      </c>
       <c r="J11" s="31">
         <v>5</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>221</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/AutoDriving/Doc/Arduino Pin cofiguration.xlsx
+++ b/AutoDriving/Doc/Arduino Pin cofiguration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongjin\Documents\GitHub\AutoDriving\AutoDriving\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AEA751-ACC3-4384-AD4A-0DEC61C2D363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC60939C-43DC-4123-A4E6-65190B1F9538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{0FB400CC-D4FF-459A-9816-476CDFC92D70}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{0FB400CC-D4FF-459A-9816-476CDFC92D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino Mega Pin" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="240">
   <si>
     <t>Output Pin Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,10 +725,6 @@
   </si>
   <si>
     <t>Motor PWM Out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raspberry Pi Wake-up Digital Input Pull-up (Interrupt)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -992,6 +988,22 @@
   </si>
   <si>
     <t>5(=0b101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sync Digital Input Pin (Raspberry Pi -&gt; Arduino)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sync Digital Output Pin (Arduino -&gt; Raspberry Pi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery Voltage ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTC Mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1380,7 +1392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1444,9 +1456,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1477,40 +1486,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1829,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B034E0-2388-4EA6-9CBE-527D6E435918}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1859,7 +1877,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1987,7 +2005,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2116,38 +2134,45 @@
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="43">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="43" t="s">
         <v>63</v>
       </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="6" t="s">
         <v>66</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="10" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -2155,7 +2180,7 @@
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="10" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2173,7 +2198,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2191,7 +2216,7 @@
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2476,7 +2501,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2503,7 +2528,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2535,7 +2560,7 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2567,7 +2592,7 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2583,7 +2608,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2599,18 +2624,23 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="7" t="s">
         <v>2</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="10" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2803,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FA9918-3804-4871-8745-8A0285D2B08F}">
   <dimension ref="B1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2816,38 +2846,38 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41" t="s">
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
     </row>
     <row r="3" spans="2:21" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="33"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="18" t="s">
         <v>45</v>
       </c>
@@ -2873,10 +2903,10 @@
         <v>25</v>
       </c>
       <c r="K3" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L3" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>199</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>27</v>
@@ -2888,7 +2918,7 @@
         <v>32</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q3" s="19" t="s">
         <v>123</v>
@@ -2899,57 +2929,61 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37">
+        <v>196</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32">
         <v>0.09</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32">
         <v>3.124375E-4</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="39"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="33"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q5" s="37"/>
       <c r="R5" s="38"/>
       <c r="T5" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U5">
         <v>16000000</v>
@@ -2957,49 +2991,51 @@
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35">
-        <v>64</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35">
+        <v>200</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37">
+        <v>256</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37">
         <v>1</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35">
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37">
         <v>1</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37">
+        <v>256</v>
+      </c>
+      <c r="Q6" s="37"/>
       <c r="R6" s="38"/>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="13" t="e">
         <f>($U$5 / C$6)*C$4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D7" s="13" t="e">
-        <f>($U$5 / D$6)*D$4-1</f>
+        <f t="shared" ref="D7:R7" si="0">($U$5 / D$6)*D$4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E7" s="21">
-        <f>($U$5 / E$6)*E$4-1</f>
-        <v>22499</v>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>5624</v>
       </c>
       <c r="F7" s="13" t="e">
-        <f t="shared" ref="F7:R7" si="0">($U$5 / F$6)*F$4-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G7" s="13" t="e">
@@ -3026,7 +3062,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="13">
         <f t="shared" si="0"/>
         <v>4998</v>
       </c>
@@ -3038,9 +3074,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P7" s="13" t="e">
+      <c r="P7" s="13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>62499</v>
       </c>
       <c r="Q7" s="13" t="e">
         <f t="shared" si="0"/>
@@ -3052,15 +3088,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
+  <mergeCells count="19">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:L6"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="C5:D5"/>
@@ -3069,15 +3102,12 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:R5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3088,8 +3118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CB8EE3-84CF-4E3F-864F-A241463DF71A}">
   <dimension ref="B1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3101,151 +3131,151 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="C3" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="H2" s="23" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="26" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="J5" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>208</v>
+      <c r="J5" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="J6" s="28">
+        <v>0</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="J6" s="29">
-        <v>0</v>
-      </c>
-      <c r="K6" s="30" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="J7" s="28">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J8" s="28">
+        <v>2</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="J7" s="29">
-        <v>1</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="J8" s="29">
-        <v>2</v>
-      </c>
-      <c r="K8" s="30" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="28">
+        <v>3</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="J9" s="29">
-        <v>3</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>227</v>
-      </c>
-      <c r="J10" s="29">
+        <v>226</v>
+      </c>
+      <c r="J10" s="28">
         <v>4</v>
       </c>
-      <c r="K10" s="30" t="s">
-        <v>219</v>
+      <c r="K10" s="29" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" t="s">
         <v>228</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>229</v>
       </c>
-      <c r="E11" t="s">
-        <v>230</v>
-      </c>
-      <c r="J11" s="31">
+      <c r="J11" s="30">
         <v>5</v>
       </c>
-      <c r="K11" s="28" t="s">
-        <v>226</v>
+      <c r="K11" s="27" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" t="s">
         <v>231</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>232</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>233</v>
-      </c>
-      <c r="E12" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -3257,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/AutoDriving/Doc/Arduino Pin cofiguration.xlsx
+++ b/AutoDriving/Doc/Arduino Pin cofiguration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongjin\Documents\GitHub\AutoDriving\AutoDriving\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l0ve1\Documents\GitHub2\AutoDriving\AutoDriving\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC60939C-43DC-4123-A4E6-65190B1F9538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EB0B74-06CD-41FB-A876-54CF31B34F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{0FB400CC-D4FF-459A-9816-476CDFC92D70}"/>
+    <workbookView xWindow="6120" yWindow="1980" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{0FB400CC-D4FF-459A-9816-476CDFC92D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino Mega Pin" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="240">
   <si>
     <t>Output Pin Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1495,33 +1495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1529,6 +1502,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1847,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B034E0-2388-4EA6-9CBE-527D6E435918}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2134,18 +2134,18 @@
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="34">
         <v>17</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -2846,38 +2846,38 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="40"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35" t="s">
+      <c r="I2" s="43"/>
+      <c r="J2" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35" t="s">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="44"/>
     </row>
     <row r="3" spans="2:21" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="41"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="18" t="s">
         <v>45</v>
       </c>
@@ -2959,29 +2959,29 @@
         <v>201</v>
       </c>
       <c r="C5" s="39"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37" t="s">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37" t="s">
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37" t="s">
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
       <c r="T5" s="12" t="s">
         <v>204</v>
       </c>
@@ -2994,29 +2994,29 @@
         <v>200</v>
       </c>
       <c r="C6" s="39"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40">
         <v>256</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40">
         <v>1</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37">
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40">
         <v>1</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37">
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40">
         <v>256</v>
       </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="38"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
@@ -3089,11 +3089,8 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="C5:D5"/>
@@ -3102,12 +3099,15 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:R5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:L6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3118,8 +3118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CB8EE3-84CF-4E3F-864F-A241463DF71A}">
   <dimension ref="B1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3138,18 +3138,15 @@
         <v>217</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>212</v>
-      </c>
       <c r="F2" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G2" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3160,15 +3157,12 @@
       <c r="C3" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="26" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3182,15 +3176,15 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
       <c r="J6" s="28">
         <v>0</v>
       </c>
@@ -3199,15 +3193,15 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
       <c r="J7" s="28">
         <v>1</v>
       </c>
